--- a/src/tmp/det_sub_b.xlsx
+++ b/src/tmp/det_sub_b.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\_Nprime496_\Downloads\MUTT\src\tmp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROADtoSUCCESS\PROJECTS\Project_WL_research\week3&amp;4&amp;5&amp;6\mutt\MUTT\src\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,9 +29,6 @@
     <t>original</t>
   </si>
   <si>
-    <t>corruption_y</t>
-  </si>
-  <si>
     <t>Different teams are playing football on the field</t>
   </si>
   <si>
@@ -933,6 +930,9 @@
   </si>
   <si>
     <t>A woman is riding a jet ski.</t>
+  </si>
+  <si>
+    <t>corruption</t>
   </si>
 </sst>
 </file>
@@ -1349,17 +1349,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C256"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1367,10 +1369,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1378,10 +1380,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1389,10 +1391,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1400,10 +1402,10 @@
         <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1411,10 +1413,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1422,10 +1424,10 @@
         <v>9</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1433,10 +1435,10 @@
         <v>11</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1444,10 +1446,10 @@
         <v>12</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1455,10 +1457,10 @@
         <v>13</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1466,10 +1468,10 @@
         <v>14</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1477,10 +1479,10 @@
         <v>17</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1488,10 +1490,10 @@
         <v>18</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1499,10 +1501,10 @@
         <v>19</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1510,10 +1512,10 @@
         <v>20</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1521,10 +1523,10 @@
         <v>47</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1532,10 +1534,10 @@
         <v>48</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1543,10 +1545,10 @@
         <v>49</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1554,10 +1556,10 @@
         <v>55</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1565,10 +1567,10 @@
         <v>57</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1576,10 +1578,10 @@
         <v>58</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1587,10 +1589,10 @@
         <v>60</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1598,10 +1600,10 @@
         <v>61</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1609,10 +1611,10 @@
         <v>62</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1620,10 +1622,10 @@
         <v>63</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1631,10 +1633,10 @@
         <v>65</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1642,10 +1644,10 @@
         <v>66</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1653,10 +1655,10 @@
         <v>67</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1664,10 +1666,10 @@
         <v>68</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1675,10 +1677,10 @@
         <v>69</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1686,10 +1688,10 @@
         <v>70</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1697,10 +1699,10 @@
         <v>73</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1708,10 +1710,10 @@
         <v>74</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1719,10 +1721,10 @@
         <v>158</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1730,10 +1732,10 @@
         <v>242</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1741,10 +1743,10 @@
         <v>326</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1752,10 +1754,10 @@
         <v>474</v>
       </c>
       <c r="B37" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1763,10 +1765,10 @@
         <v>475</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1774,10 +1776,10 @@
         <v>476</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1785,10 +1787,10 @@
         <v>477</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1796,10 +1798,10 @@
         <v>478</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1807,10 +1809,10 @@
         <v>479</v>
       </c>
       <c r="B42" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1818,10 +1820,10 @@
         <v>480</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1829,10 +1831,10 @@
         <v>484</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1840,10 +1842,10 @@
         <v>485</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1851,10 +1853,10 @@
         <v>486</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1862,10 +1864,10 @@
         <v>487</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1873,10 +1875,10 @@
         <v>488</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1884,10 +1886,10 @@
         <v>489</v>
       </c>
       <c r="B49" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1895,10 +1897,10 @@
         <v>490</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1906,10 +1908,10 @@
         <v>491</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1917,10 +1919,10 @@
         <v>492</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1928,10 +1930,10 @@
         <v>493</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1939,10 +1941,10 @@
         <v>494</v>
       </c>
       <c r="B54" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1950,10 +1952,10 @@
         <v>495</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1961,10 +1963,10 @@
         <v>496</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1972,10 +1974,10 @@
         <v>497</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1983,10 +1985,10 @@
         <v>498</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1994,10 +1996,10 @@
         <v>499</v>
       </c>
       <c r="B59" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2005,10 +2007,10 @@
         <v>500</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2016,10 +2018,10 @@
         <v>501</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2027,10 +2029,10 @@
         <v>502</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2038,10 +2040,10 @@
         <v>503</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2049,10 +2051,10 @@
         <v>504</v>
       </c>
       <c r="B64" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2060,10 +2062,10 @@
         <v>505</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2071,10 +2073,10 @@
         <v>509</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2082,10 +2084,10 @@
         <v>510</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2093,10 +2095,10 @@
         <v>511</v>
       </c>
       <c r="B68" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2104,10 +2106,10 @@
         <v>512</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2115,10 +2117,10 @@
         <v>513</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2126,10 +2128,10 @@
         <v>514</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2137,10 +2139,10 @@
         <v>515</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2148,10 +2150,10 @@
         <v>516</v>
       </c>
       <c r="B73" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2159,10 +2161,10 @@
         <v>517</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2170,10 +2172,10 @@
         <v>518</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2181,10 +2183,10 @@
         <v>519</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2192,10 +2194,10 @@
         <v>520</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2203,10 +2205,10 @@
         <v>521</v>
       </c>
       <c r="B78" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2214,10 +2216,10 @@
         <v>522</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2225,10 +2227,10 @@
         <v>523</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2236,10 +2238,10 @@
         <v>524</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2247,10 +2249,10 @@
         <v>525</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2258,10 +2260,10 @@
         <v>526</v>
       </c>
       <c r="B83" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2269,10 +2271,10 @@
         <v>530</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2280,10 +2282,10 @@
         <v>531</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2291,10 +2293,10 @@
         <v>532</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2302,10 +2304,10 @@
         <v>533</v>
       </c>
       <c r="B87" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2313,10 +2315,10 @@
         <v>534</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2324,10 +2326,10 @@
         <v>535</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2335,10 +2337,10 @@
         <v>536</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2346,10 +2348,10 @@
         <v>537</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2357,10 +2359,10 @@
         <v>538</v>
       </c>
       <c r="B92" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2368,10 +2370,10 @@
         <v>539</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2379,10 +2381,10 @@
         <v>540</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2390,10 +2392,10 @@
         <v>541</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2401,10 +2403,10 @@
         <v>542</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="270.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2412,10 +2414,10 @@
         <v>543</v>
       </c>
       <c r="B97" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C97" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2423,10 +2425,10 @@
         <v>544</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2434,10 +2436,10 @@
         <v>548</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2445,10 +2447,10 @@
         <v>549</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2456,10 +2458,10 @@
         <v>550</v>
       </c>
       <c r="B101" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C101" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2467,10 +2469,10 @@
         <v>551</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2478,10 +2480,10 @@
         <v>552</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2489,10 +2491,10 @@
         <v>553</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2500,10 +2502,10 @@
         <v>554</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2511,10 +2513,10 @@
         <v>560</v>
       </c>
       <c r="B106" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C106" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2522,10 +2524,10 @@
         <v>569</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2533,10 +2535,10 @@
         <v>570</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2544,10 +2546,10 @@
         <v>571</v>
       </c>
       <c r="B109" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C109" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2555,10 +2557,10 @@
         <v>572</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2566,10 +2568,10 @@
         <v>573</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2577,10 +2579,10 @@
         <v>577</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2588,10 +2590,10 @@
         <v>578</v>
       </c>
       <c r="B113" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C113" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2599,10 +2601,10 @@
         <v>580</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2610,10 +2612,10 @@
         <v>582</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2621,10 +2623,10 @@
         <v>583</v>
       </c>
       <c r="B116" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C116" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2632,10 +2634,10 @@
         <v>584</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2643,10 +2645,10 @@
         <v>585</v>
       </c>
       <c r="B118" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C118" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2654,10 +2656,10 @@
         <v>586</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2665,10 +2667,10 @@
         <v>587</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2676,10 +2678,10 @@
         <v>588</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2687,10 +2689,10 @@
         <v>589</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2698,10 +2700,10 @@
         <v>590</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2709,10 +2711,10 @@
         <v>591</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2720,10 +2722,10 @@
         <v>592</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2731,10 +2733,10 @@
         <v>593</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2742,10 +2744,10 @@
         <v>594</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2753,10 +2755,10 @@
         <v>595</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2764,10 +2766,10 @@
         <v>597</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2775,10 +2777,10 @@
         <v>603</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2786,10 +2788,10 @@
         <v>605</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2797,10 +2799,10 @@
         <v>611</v>
       </c>
       <c r="B132" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C132" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="C132" s="4" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2808,10 +2810,10 @@
         <v>612</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2819,10 +2821,10 @@
         <v>613</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2830,10 +2832,10 @@
         <v>614</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2841,10 +2843,10 @@
         <v>615</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2852,10 +2854,10 @@
         <v>616</v>
       </c>
       <c r="B137" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C137" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="C137" s="4" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2863,10 +2865,10 @@
         <v>617</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2874,10 +2876,10 @@
         <v>626</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2885,10 +2887,10 @@
         <v>627</v>
       </c>
       <c r="B140" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C140" s="4" t="s">
         <v>160</v>
-      </c>
-      <c r="C140" s="4" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2896,10 +2898,10 @@
         <v>628</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2907,10 +2909,10 @@
         <v>629</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2918,10 +2920,10 @@
         <v>633</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2929,10 +2931,10 @@
         <v>634</v>
       </c>
       <c r="B144" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C144" s="4" t="s">
         <v>165</v>
-      </c>
-      <c r="C144" s="4" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2940,10 +2942,10 @@
         <v>635</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2951,10 +2953,10 @@
         <v>636</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2962,10 +2964,10 @@
         <v>637</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2973,10 +2975,10 @@
         <v>638</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2984,10 +2986,10 @@
         <v>639</v>
       </c>
       <c r="B149" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C149" s="4" t="s">
         <v>171</v>
-      </c>
-      <c r="C149" s="4" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2995,10 +2997,10 @@
         <v>640</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3006,10 +3008,10 @@
         <v>641</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3017,10 +3019,10 @@
         <v>642</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3028,10 +3030,10 @@
         <v>643</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3039,10 +3041,10 @@
         <v>644</v>
       </c>
       <c r="B154" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C154" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="C154" s="4" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3050,10 +3052,10 @@
         <v>645</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3061,10 +3063,10 @@
         <v>646</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3072,10 +3074,10 @@
         <v>647</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3083,10 +3085,10 @@
         <v>648</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3094,10 +3096,10 @@
         <v>649</v>
       </c>
       <c r="B159" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C159" s="4" t="s">
         <v>183</v>
-      </c>
-      <c r="C159" s="4" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3105,10 +3107,10 @@
         <v>650</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3116,10 +3118,10 @@
         <v>654</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3127,10 +3129,10 @@
         <v>655</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3138,10 +3140,10 @@
         <v>656</v>
       </c>
       <c r="B163" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C163" s="4" t="s">
         <v>188</v>
-      </c>
-      <c r="C163" s="4" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3149,10 +3151,10 @@
         <v>657</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3160,10 +3162,10 @@
         <v>658</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3171,10 +3173,10 @@
         <v>659</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3182,10 +3184,10 @@
         <v>660</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3193,10 +3195,10 @@
         <v>661</v>
       </c>
       <c r="B168" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C168" s="4" t="s">
         <v>194</v>
-      </c>
-      <c r="C168" s="4" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3204,10 +3206,10 @@
         <v>677</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3215,10 +3217,10 @@
         <v>678</v>
       </c>
       <c r="B170" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C170" s="4" t="s">
         <v>197</v>
-      </c>
-      <c r="C170" s="4" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3226,10 +3228,10 @@
         <v>679</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3237,10 +3239,10 @@
         <v>680</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3248,10 +3250,10 @@
         <v>681</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3259,10 +3261,10 @@
         <v>682</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3270,10 +3272,10 @@
         <v>683</v>
       </c>
       <c r="B175" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C175" s="4" t="s">
         <v>203</v>
-      </c>
-      <c r="C175" s="4" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3281,10 +3283,10 @@
         <v>684</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3292,10 +3294,10 @@
         <v>685</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3303,10 +3305,10 @@
         <v>686</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3314,10 +3316,10 @@
         <v>687</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3325,10 +3327,10 @@
         <v>688</v>
       </c>
       <c r="B180" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C180" s="4" t="s">
         <v>209</v>
-      </c>
-      <c r="C180" s="4" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3336,10 +3338,10 @@
         <v>689</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3347,10 +3349,10 @@
         <v>690</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3358,10 +3360,10 @@
         <v>691</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3369,10 +3371,10 @@
         <v>692</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3380,10 +3382,10 @@
         <v>693</v>
       </c>
       <c r="B185" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C185" s="4" t="s">
         <v>215</v>
-      </c>
-      <c r="C185" s="4" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3391,10 +3393,10 @@
         <v>694</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3402,10 +3404,10 @@
         <v>695</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3413,10 +3415,10 @@
         <v>696</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3424,10 +3426,10 @@
         <v>697</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3435,10 +3437,10 @@
         <v>698</v>
       </c>
       <c r="B190" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C190" s="4" t="s">
         <v>221</v>
-      </c>
-      <c r="C190" s="4" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3446,10 +3448,10 @@
         <v>699</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3457,10 +3459,10 @@
         <v>700</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3468,10 +3470,10 @@
         <v>701</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3479,10 +3481,10 @@
         <v>702</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3490,10 +3492,10 @@
         <v>703</v>
       </c>
       <c r="B195" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C195" s="4" t="s">
         <v>227</v>
-      </c>
-      <c r="C195" s="4" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3501,10 +3503,10 @@
         <v>704</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3512,10 +3514,10 @@
         <v>705</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3523,10 +3525,10 @@
         <v>706</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3534,10 +3536,10 @@
         <v>707</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3545,10 +3547,10 @@
         <v>708</v>
       </c>
       <c r="B200" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C200" s="4" t="s">
         <v>233</v>
-      </c>
-      <c r="C200" s="4" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3556,10 +3558,10 @@
         <v>709</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3567,10 +3569,10 @@
         <v>713</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3578,10 +3580,10 @@
         <v>714</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3589,10 +3591,10 @@
         <v>715</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3600,10 +3602,10 @@
         <v>716</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3611,10 +3613,10 @@
         <v>717</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3622,10 +3624,10 @@
         <v>718</v>
       </c>
       <c r="B207" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C207" s="4" t="s">
         <v>241</v>
-      </c>
-      <c r="C207" s="4" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3633,10 +3635,10 @@
         <v>719</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3644,10 +3646,10 @@
         <v>720</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3655,10 +3657,10 @@
         <v>721</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3666,10 +3668,10 @@
         <v>722</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3677,10 +3679,10 @@
         <v>723</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3688,10 +3690,10 @@
         <v>724</v>
       </c>
       <c r="B213" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C213" s="4" t="s">
         <v>248</v>
-      </c>
-      <c r="C213" s="4" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3699,10 +3701,10 @@
         <v>725</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3710,10 +3712,10 @@
         <v>726</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3721,10 +3723,10 @@
         <v>730</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3732,10 +3734,10 @@
         <v>731</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3743,10 +3745,10 @@
         <v>732</v>
       </c>
       <c r="B218" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C218" s="4" t="s">
         <v>254</v>
-      </c>
-      <c r="C218" s="4" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3754,10 +3756,10 @@
         <v>737</v>
       </c>
       <c r="B219" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C219" s="4" t="s">
         <v>256</v>
-      </c>
-      <c r="C219" s="4" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3765,10 +3767,10 @@
         <v>762</v>
       </c>
       <c r="B220" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C220" s="4" t="s">
         <v>258</v>
-      </c>
-      <c r="C220" s="4" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3776,10 +3778,10 @@
         <v>763</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3787,10 +3789,10 @@
         <v>764</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3798,10 +3800,10 @@
         <v>765</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3809,10 +3811,10 @@
         <v>766</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3820,10 +3822,10 @@
         <v>767</v>
       </c>
       <c r="B225" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C225" s="4" t="s">
         <v>264</v>
-      </c>
-      <c r="C225" s="4" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3831,10 +3833,10 @@
         <v>768</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3842,10 +3844,10 @@
         <v>777</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3853,10 +3855,10 @@
         <v>778</v>
       </c>
       <c r="B228" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C228" s="4" t="s">
         <v>268</v>
-      </c>
-      <c r="C228" s="4" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3864,10 +3866,10 @@
         <v>779</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3875,10 +3877,10 @@
         <v>780</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3886,10 +3888,10 @@
         <v>781</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3897,10 +3899,10 @@
         <v>782</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3908,10 +3910,10 @@
         <v>783</v>
       </c>
       <c r="B233" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C233" s="4" t="s">
         <v>274</v>
-      </c>
-      <c r="C233" s="4" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3919,10 +3921,10 @@
         <v>784</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3930,10 +3932,10 @@
         <v>785</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3941,10 +3943,10 @@
         <v>786</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3952,10 +3954,10 @@
         <v>787</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3963,10 +3965,10 @@
         <v>788</v>
       </c>
       <c r="B238" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C238" s="4" t="s">
         <v>280</v>
-      </c>
-      <c r="C238" s="4" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3974,10 +3976,10 @@
         <v>789</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3985,10 +3987,10 @@
         <v>790</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3996,10 +3998,10 @@
         <v>791</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4007,10 +4009,10 @@
         <v>792</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4018,10 +4020,10 @@
         <v>793</v>
       </c>
       <c r="B243" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="C243" s="4" t="s">
         <v>286</v>
-      </c>
-      <c r="C243" s="4" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4029,10 +4031,10 @@
         <v>797</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="245" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4040,10 +4042,10 @@
         <v>798</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4051,10 +4053,10 @@
         <v>799</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4062,10 +4064,10 @@
         <v>800</v>
       </c>
       <c r="B247" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C247" s="4" t="s">
         <v>291</v>
-      </c>
-      <c r="C247" s="4" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="248" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4073,10 +4075,10 @@
         <v>801</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4084,10 +4086,10 @@
         <v>802</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4095,10 +4097,10 @@
         <v>803</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="251" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4106,10 +4108,10 @@
         <v>804</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4117,10 +4119,10 @@
         <v>805</v>
       </c>
       <c r="B252" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="C252" s="4" t="s">
         <v>297</v>
-      </c>
-      <c r="C252" s="4" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4128,10 +4130,10 @@
         <v>806</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="254" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4139,10 +4141,10 @@
         <v>807</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="255" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4150,10 +4152,10 @@
         <v>808</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4161,10 +4163,10 @@
         <v>809</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
